--- a/POST-THESIS/1982/entity_creation/datasets_updated/Sabra_and_Shatila_massacre/political_parties_en.xlsx
+++ b/POST-THESIS/1982/entity_creation/datasets_updated/Sabra_and_Shatila_massacre/political_parties_en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Al-Tanzim</t>
+          <t>Al-Qaeda</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anti-communism,Lebanese nationalism,Ultranationalism</t>
+          <t>Anti-communism,sfn,Sunni Islamism,Islamic fundamentalism,Factions:,Anti-Zionism,Collapsible list,loc,Anti-imperialism,Anti-Indian sentiment,87 * Sunni–Shia alliance sfn,Willsky-Ciollo,Salafi jihadism,Jihadism,Antisemitism,harvnb,Factions: * Pan-Islamism sfn,Anti-Americanism,Deobandism,Sunni–Shia alliance,Salafism,Anti-LGBT,Muslim unity,12 * Islamic fundamentalism * Anti-Americanism * Anti-communism * Anti-imperialism * Anti-Indian sentiment * Anti-LGBT * Antisemitism * Anti-Western imperialism * Anti-Zionism Plainlist,Anti-Western imperialism,Deobandi jihadism,Nbsp Plainlist,Gallagher,Wright,Sources:,Nbsp,Gunaratna,Bergen,Peter L.,Holy war,Inc.: Inside the Secret World of Osama bin Laden,New York: Free Press,2001.,pp. 70–71,Wahhabism,Qutbism,Ahl-i Hadith,officially denied),Introduction,pp. 12,87 * Qutbism * Jihadism * Muslim unity sfn,Introduction,pp. 12,87,Plainlist,Pan-Islamism</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,17 +476,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>As-Saiqa</t>
+          <t>hy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baathism,Pan-Arabism</t>
+          <t>Left-wing nationalism,Revolutionary socialism,Marxism-Leninism,Armenian nationalism</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Far-left</t>
+          <t>Left-wing to far-left</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -494,53 +494,61 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Constitutional Bloc</t>
+          <t>Islamic Resistance Movement</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pro-National Pact,Liberal nationalism,Nonsectarianism,Secular liberalism</t>
+          <t>sfn,Islamic fundamentalism,113 efn,Anti-Zionism,pp,156–57 sfn,66–67 efn,ubl,Palestinian nationalism,Militarism,Dalacoura,Gelvin,226 sfn,efn,465 sfn,Dunning,Litvak,66–67,66–67 sfn,156–57,Stepanova,Cheema,465 efn,Islamic nationalism,Islamism</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yahya Sinwar,Khalil al-Hayya,Abu Omar Hassan,Yahya Sinwar,2024 targeted assassination of Muhammad Deif efn,Mohammed Deif Assassinated,</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Free Patriotic Movement</t>
+          <t>Lebanese Forces</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Civic nationalism,Lebanese nationalism,&lt;!--Varying sources claim civic nationalism and Christian nationalism--&gt;,Christian democracy</t>
+          <t>Liberal conservatism,Lebanese nationalism,Christian democracy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Right-wing,Centre,ubl,centre-left</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Right-wing</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Samir Geagea,Bachir Gemayel,Vice-president,</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Guardians of the Cedars</t>
+          <t>Lebanese Forces</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anti-communism,Social conservatism,Fascism,Lebanese nationalism,Anti-Palestinianism&lt;br/ &gt;Secularism,Ethnic nationalism,Anti Arabism,Phoenicianism,Ultranationalism</t>
+          <t>Anti-communism,Federalism in Lebanon,Lebanese nationalism,Conservatism,Christian nationalism,Maronism,Anti Pan-Arabism</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Far-right</t>
+          <t>Right-wing to far-right</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -548,256 +556,126 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lebanese Kataeb Party</t>
+          <t>Lebanese Front</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anti-communism,Christian nationalism,Social conservatism,Lebanese nationalism,Maronite politics,Falangism,Christian democracy</t>
+          <t>Anti-Arabism,Anti-communism,Factions:,Phoenicianism,Anti-pan-Arabism,Anti-Palestinianism,Lebanese nationalism,Christian nationalism,Falangism</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Centre-right,Right-wing,far-right</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Samy Gemayel,Pierre Gemayel,</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lebanese Forces</t>
+          <t>Palestine Liberation Organization</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lebanese nationalism,Liberal conservatism,Christian democracy</t>
+          <t>Pan-Arabism,Marxism,August 2024 * Factions:,Secularism,Factions:,ubl,Anti-Zionism,One-state solution,August 2024 * Baathism * Marxism,Palestinian nationalism,Anti-imperialism,Baathism,One-state solution * Anti-Zionism,August 2024,cn,Arab socialism,Arab nationalism</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Right-wing</t>
+          <t>Left-wing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Samir Geagea,Bachir Gemayel,Vice-president,</t>
+          <t>Mahmoud Abbas,</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lebanese Forces</t>
+          <t>Palestine Liberation Organization</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anti-communism,Christian nationalism,Lebanese nationalism,Maronism,Anti Pan-Arabism,Conservatism,Federalism in Lebanon</t>
+          <t>Pan-Arabism,Marxism,August 2024 * Factions:,Secularism,Factions:,ubl,Anti-Zionism,One-state solution,August 2024 * Baathism * Marxism,Palestinian nationalism,Anti-imperialism,Baathism,One-state solution * Anti-Zionism,August 2024,cn,Arab socialism,Arab nationalism</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Right-wing to far-right</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Left-wing</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mahmoud Abbas,</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lebanese Forces</t>
+          <t>Lebanese Kataeb Party</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anti-communism,Christian nationalism,Lebanese nationalism,Maronism,Anti Pan-Arabism,Conservatism,Federalism in Lebanon</t>
+          <t>Christian nationalism,Anti-communism,Social conservatism,Maronite politics,Lebanese nationalism,Christian democracy,Falangism</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Right-wing to far-right</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>Right-wing,far-right,Centre-right</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Samy Gemayel,Pierre Gemayel,</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lebanese Forces</t>
+          <t>South Lebanon Army</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anti-communism,Christian nationalism,Lebanese nationalism,Maronism,Anti Pan-Arabism,Conservatism,Federalism in Lebanon</t>
+          <t>Anti-communism,Muslim-Christian Unity,Secularism,Factions:,Zionism,Anti-Palestinianism,Multiconfessionalism,Maronite politics,Lebanese nationalism</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Right-wing to far-right</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lebanese Front</t>
+          <t>Syrian Social Nationalist Party</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anti-communism,Factions:,Christian nationalism,Anti-Arabism,Lebanese nationalism,Anti-Palestinianism,Falangism,Phoenicianism,Anti-pan-Arabism</t>
+          <t>Antisemitism,Economic populism,Anti-communism,Social nationalism,ubl,collapsible list,Syrian irredentism,Syrian nationalism,Fascism</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>National Bloc</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Lebanese nationalism,Liberal conservatism,Liberalism,Francophilie,Secularism</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Lebanese National Movement</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Anti-Zionism,Arab nationalism,Palestinian nationalism,Multiconfessionalism,non-sectarianism,Pan-Arabism,Socialism,Communism,Secularism</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Marada Brigade/Zgharta Liberation Army</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Anti-Zionism,Lebanese nationalism,Christian nationalism,Christian right</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Marada Movement</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Lebanese nationalism,Pro-Syrian government,Christian democracy</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Right-wing</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Suleiman Frangieh, Jr.,Suleiman Frangieh,</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>National Liberal Party</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Federalism,National liberalism,Economic liberalism</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Centre-right</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Camille Dory Chamoun,Robert Khoury,François Zaatar,Camille Chamoun,</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Palestine Liberation Organization</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Anti-imperialism,Factions:,Anti-Zionism,cn,Arab nationalism,One-state solution * Anti-Zionism,Palestinian nationalism,One-state solution,Arab socialism,Baathism,ubl,Pan-Arabism,Marxism,August 2024 * Baathism * Marxism,August 2024 * Factions:,August 2024,Secularism</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Left-wing</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Mahmoud Abbas,</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Syrian Social Nationalist Party</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Anti-communism,Syrian irredentism,Syrian nationalism,Fascism,Social nationalism,Antisemitism,ubl,collapsible list,Economic populism</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>and right,and right,sometimes being labeled far-right.,sometimes being labeled far-right.,Syncretic efn,In the past,the party or elements of its ideology or membership have been erred to as belonging to both the political left</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+          <t>and right,In the past,the party or elements of its ideology or membership have been erred to as belonging to both the political left,sometimes being labeled far-right.,Syncretic efn,and right,sometimes being labeled far-right.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Rabie Banat,Antoun Saadeh,</t>
         </is>
